--- a/all data.xlsx
+++ b/all data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13961" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13961" uniqueCount="2575">
   <si>
     <t>OP422646</t>
   </si>
@@ -7736,6 +7736,9 @@
   </si>
   <si>
     <t>Host family</t>
+  </si>
+  <si>
+    <t>ochlerotatus caspius</t>
   </si>
 </sst>
 </file>
@@ -8150,8 +8153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1563" workbookViewId="0">
-      <selection activeCell="F1574" sqref="F1574"/>
+    <sheetView tabSelected="1" topLeftCell="A1366" workbookViewId="0">
+      <selection activeCell="F1377" sqref="F1377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58311,7 +58314,7 @@
         <v>2040</v>
       </c>
       <c r="G1377" s="1" t="s">
-        <v>2569</v>
+        <v>387</v>
       </c>
       <c r="H1377" s="9"/>
       <c r="I1377" s="6" t="s">
@@ -65673,7 +65676,7 @@
         <v>2314</v>
       </c>
       <c r="F1574" s="1" t="s">
-        <v>2327</v>
+        <v>2574</v>
       </c>
       <c r="G1574" s="1" t="s">
         <v>2569</v>

--- a/all data.xlsx
+++ b/all data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13961" uniqueCount="2575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13955" uniqueCount="2575">
   <si>
     <t>OP422646</t>
   </si>
@@ -8153,8 +8153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1366" workbookViewId="0">
-      <selection activeCell="F1377" sqref="F1377"/>
+    <sheetView tabSelected="1" topLeftCell="A1529" workbookViewId="0">
+      <selection activeCell="F1540" sqref="F1540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30762,9 +30762,7 @@
       <c r="F608" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="G608" s="1" t="s">
-        <v>2569</v>
-      </c>
+      <c r="G608" s="1"/>
       <c r="I608" s="6" t="s">
         <v>89</v>
       </c>
@@ -31357,9 +31355,7 @@
       <c r="F625" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="G625" s="1" t="s">
-        <v>2569</v>
-      </c>
+      <c r="G625" s="1"/>
       <c r="I625" s="6" t="s">
         <v>1106</v>
       </c>
@@ -31917,9 +31913,7 @@
       <c r="F641" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="G641" s="1" t="s">
-        <v>2569</v>
-      </c>
+      <c r="G641" s="1"/>
       <c r="I641" s="6" t="s">
         <v>1129</v>
       </c>
@@ -64501,9 +64495,7 @@
       <c r="F1540" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="G1540" s="6" t="s">
-        <v>2569</v>
-      </c>
+      <c r="G1540" s="1"/>
       <c r="H1540" s="9"/>
       <c r="I1540" s="6" t="s">
         <v>2259</v>
@@ -64577,9 +64569,7 @@
       <c r="F1542" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="G1542" s="6" t="s">
-        <v>2569</v>
-      </c>
+      <c r="G1542" s="1"/>
       <c r="H1542" s="9"/>
       <c r="I1542" s="6" t="s">
         <v>2263</v>
@@ -64615,9 +64605,7 @@
       <c r="F1543" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="G1543" s="6" t="s">
-        <v>2569</v>
-      </c>
+      <c r="G1543" s="1"/>
       <c r="H1543" s="9"/>
       <c r="I1543" s="6" t="s">
         <v>2263</v>
